--- a/veriSeti.xlsx
+++ b/veriSeti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BATUHAN\Desktop\İstatistikOdevi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A48A75A-CC25-463A-A676-A5D484D4106C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878DCB5E-8D7A-4E6D-88D6-D53DF45D7879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F820950-D26E-4F1A-BFA0-8E44780650B5}"/>
+    <workbookView xWindow="4872" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{4F820950-D26E-4F1A-BFA0-8E44780650B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/veriSeti.xlsx
+++ b/veriSeti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BATUHAN\Desktop\İstatistikOdevi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878DCB5E-8D7A-4E6D-88D6-D53DF45D7879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885EE2E-1DA7-4BAF-BCDF-53A110B2530A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4872" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{4F820950-D26E-4F1A-BFA0-8E44780650B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F820950-D26E-4F1A-BFA0-8E44780650B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Period\Unit:</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>ornek3</t>
+  </si>
+  <si>
+    <t>ornek4</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DDA791-F545-47BF-8D30-C55A2F4F3DB3}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,7 +429,7 @@
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -448,8 +451,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44239</v>
       </c>
@@ -469,10 +475,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44238</v>
       </c>
@@ -492,10 +501,13 @@
         <v>3</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44237</v>
       </c>
@@ -515,10 +527,13 @@
         <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44236</v>
       </c>
@@ -538,10 +553,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44235</v>
       </c>
@@ -561,10 +579,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44232</v>
       </c>
@@ -583,8 +604,14 @@
       <c r="F7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44231</v>
       </c>
@@ -603,8 +630,14 @@
       <c r="F8" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44230</v>
       </c>
@@ -623,8 +656,12 @@
       <c r="F9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44229</v>
       </c>
@@ -643,8 +680,11 @@
       <c r="F10" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44228</v>
       </c>
@@ -663,8 +703,11 @@
       <c r="F11" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44225</v>
       </c>
@@ -683,8 +726,11 @@
       <c r="F12" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44224</v>
       </c>
@@ -700,8 +746,11 @@
       <c r="F13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44223</v>
       </c>
@@ -715,8 +764,11 @@
         <v>8.9542000000000002</v>
       </c>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44222</v>
       </c>
@@ -730,8 +782,11 @@
         <v>8.9268999999999998</v>
       </c>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44221</v>
       </c>
@@ -745,8 +800,11 @@
         <v>8.9864999999999995</v>
       </c>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44218</v>
       </c>
@@ -760,8 +818,11 @@
         <v>9.0195000000000007</v>
       </c>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44217</v>
       </c>
@@ -775,8 +836,11 @@
         <v>8.9555000000000007</v>
       </c>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44216</v>
       </c>
@@ -790,8 +854,11 @@
         <v>9.0111000000000008</v>
       </c>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44215</v>
       </c>
@@ -804,8 +871,11 @@
       <c r="D20" s="3">
         <v>9.0257000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44214</v>
       </c>
@@ -818,8 +888,11 @@
       <c r="D21" s="3">
         <v>9.0546000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44211</v>
       </c>
@@ -832,8 +905,11 @@
       <c r="D22" s="3">
         <v>9.0178999999999991</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44210</v>
       </c>
@@ -846,8 +922,11 @@
       <c r="D23" s="3">
         <v>8.9491999999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H23" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44209</v>
       </c>
@@ -860,8 +939,11 @@
       <c r="D24" s="3">
         <v>9.0531000000000006</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44208</v>
       </c>
@@ -874,8 +956,11 @@
       <c r="D25" s="3">
         <v>9.1050000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44207</v>
       </c>
@@ -889,7 +974,7 @@
         <v>9.0549999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44204</v>
       </c>
@@ -903,7 +988,7 @@
         <v>9.0145999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44203</v>
       </c>
@@ -917,7 +1002,7 @@
         <v>8.9986999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44202</v>
       </c>
@@ -931,7 +1016,7 @@
         <v>9.0554000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44201</v>
       </c>
@@ -945,7 +1030,7 @@
         <v>9.0693999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44200</v>
       </c>
@@ -959,7 +1044,7 @@
         <v>9.0579000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44196</v>
       </c>

--- a/veriSeti.xlsx
+++ b/veriSeti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BATUHAN\Desktop\İstatistikOdevi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885EE2E-1DA7-4BAF-BCDF-53A110B2530A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4C525-C571-464F-9A7B-5A0F75BF0765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F820950-D26E-4F1A-BFA0-8E44780650B5}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/veriSeti.xlsx
+++ b/veriSeti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BATUHAN\Desktop\İstatistikOdevi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4C525-C571-464F-9A7B-5A0F75BF0765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C71947-298B-4160-BC6A-A8671CF83B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F820950-D26E-4F1A-BFA0-8E44780650B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Period\Unit:</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>ornek4</t>
+  </si>
+  <si>
+    <t>ornek5</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DDA791-F545-47BF-8D30-C55A2F4F3DB3}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +432,7 @@
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -454,8 +457,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44239</v>
       </c>
@@ -480,8 +486,11 @@
       <c r="H2" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44238</v>
       </c>
@@ -506,8 +515,11 @@
       <c r="H3" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44237</v>
       </c>
@@ -532,8 +544,11 @@
       <c r="H4" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44236</v>
       </c>
@@ -558,8 +573,11 @@
       <c r="H5" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44235</v>
       </c>
@@ -584,8 +602,11 @@
       <c r="H6" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44232</v>
       </c>
@@ -610,8 +631,11 @@
       <c r="H7" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44231</v>
       </c>
@@ -636,8 +660,11 @@
       <c r="H8" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44230</v>
       </c>
@@ -660,8 +687,11 @@
       <c r="H9" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44229</v>
       </c>
@@ -683,8 +713,11 @@
       <c r="H10" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44228</v>
       </c>
@@ -706,8 +739,11 @@
       <c r="H11" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44225</v>
       </c>
@@ -729,8 +765,11 @@
       <c r="H12" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44224</v>
       </c>
@@ -749,8 +788,11 @@
       <c r="H13" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44223</v>
       </c>
@@ -767,8 +809,11 @@
       <c r="H14" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44222</v>
       </c>
@@ -785,8 +830,11 @@
       <c r="H15" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44221</v>
       </c>
@@ -803,8 +851,11 @@
       <c r="H16" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44218</v>
       </c>
@@ -821,8 +872,11 @@
       <c r="H17" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44217</v>
       </c>
@@ -839,8 +893,11 @@
       <c r="H18" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44216</v>
       </c>
@@ -857,8 +914,11 @@
       <c r="H19" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44215</v>
       </c>
@@ -874,8 +934,11 @@
       <c r="H20" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44214</v>
       </c>
@@ -891,8 +954,11 @@
       <c r="H21" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44211</v>
       </c>
@@ -908,8 +974,11 @@
       <c r="H22" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44210</v>
       </c>
@@ -925,8 +994,11 @@
       <c r="H23" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44209</v>
       </c>
@@ -942,8 +1014,11 @@
       <c r="H24" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44208</v>
       </c>
@@ -959,8 +1034,11 @@
       <c r="H25" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44207</v>
       </c>
@@ -974,7 +1052,7 @@
         <v>9.0549999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44204</v>
       </c>
@@ -988,7 +1066,7 @@
         <v>9.0145999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44203</v>
       </c>
@@ -1002,7 +1080,7 @@
         <v>8.9986999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44202</v>
       </c>
@@ -1016,7 +1094,7 @@
         <v>9.0554000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44201</v>
       </c>
@@ -1030,7 +1108,7 @@
         <v>9.0693999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44200</v>
       </c>
@@ -1044,7 +1122,7 @@
         <v>9.0579000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44196</v>
       </c>

--- a/veriSeti.xlsx
+++ b/veriSeti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BATUHAN\Desktop\İstatistikOdevi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C71947-298B-4160-BC6A-A8671CF83B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFBA5EC-E15E-4C39-B39B-BDC1ACDF32B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F820950-D26E-4F1A-BFA0-8E44780650B5}"/>
+    <workbookView xWindow="6768" yWindow="1608" windowWidth="17280" windowHeight="9564" xr2:uid="{4F820950-D26E-4F1A-BFA0-8E44780650B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Period\Unit:</t>
-  </si>
-  <si>
     <t>US dollar</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>ornek5</t>
+  </si>
+  <si>
+    <t>Period - Unit</t>
   </si>
 </sst>
 </file>
@@ -420,13 +420,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DDA791-F545-47BF-8D30-C55A2F4F3DB3}">
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
@@ -434,31 +434,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2342,6 +2342,8 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
